--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_21.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_3_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1144338.574492955</v>
+        <v>1170702.81926314</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2083705.798332965</v>
+        <v>1737911.484358931</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3522967.675855587</v>
+        <v>4541732.1730751</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10396671.14092294</v>
+        <v>9987288.559206421</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>104.5113366705979</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>334.2089236455996</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -831,10 +831,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1.465802816548228</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -867,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>94.63926978364057</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -898,19 +898,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>302.7074269809883</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>328.6188756177279</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>7.634490799661691</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>100.804801668293</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>295.8252601725015</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1356,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>94.63926978364033</v>
       </c>
       <c r="Y10" t="n">
-        <v>155.8860385675338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>412.9169039459368</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>177.7698583231341</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,25 +1417,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>28.71462267228026</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1547862223006</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.0669836643703</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
-        <v>99.90681807664348</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I12" t="n">
-        <v>45.44580843958678</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.90078060183531</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S12" t="n">
-        <v>147.9721212459916</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T12" t="n">
-        <v>195.0194028815133</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>165.0140383262327</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>155.4526127311946</v>
       </c>
       <c r="U13" t="n">
-        <v>286.260654658097</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>348.8459401532149</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>412.9169039459368</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938906</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>82.71154807873008</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0669836643703</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
-        <v>99.90681807664348</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I15" t="n">
-        <v>45.44580843958678</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.90078060183531</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S15" t="n">
-        <v>147.9721212459916</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T15" t="n">
-        <v>195.0194028815133</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8573996139459</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>198.8882691671091</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>94.6392697836408</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1858,13 +1858,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H17" t="n">
-        <v>305.2872491113177</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>61.77102991146828</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385011</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.5574116118565</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262921</v>
+        <v>99.90681807664348</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>45.44580843958678</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>20.90078060183531</v>
       </c>
       <c r="S18" t="n">
-        <v>138.5070438670632</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T18" t="n">
-        <v>192.9654699154601</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8238751368068</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2001,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>116.9022392827394</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>160.0006879278783</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896915</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>25.06599159720328</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051975</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.5574116118565</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H21" t="n">
-        <v>94.98542483262921</v>
+        <v>99.90681807664349</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>45.44580843958679</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>20.90078060183532</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670632</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T21" t="n">
-        <v>192.9654699154601</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8238751368068</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,19 +2289,19 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>198.8882691671089</v>
       </c>
       <c r="T22" t="n">
-        <v>112.8722262355888</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710089</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>109.4779828373172</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>29.32201570294595</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>137.0843744639755</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2772,13 +2772,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3046,10 +3046,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>14.49903238195459</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>100.8744262095863</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>139.1537278750036</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>118.4898845065119</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,19 +3663,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,22 +3711,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>136.8402217474555</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>147.7402507536362</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3900,16 +3900,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>131.6255343941016</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>93.879166811399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4030,7 +4030,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U44" t="n">
         <v>251.078595249801</v>
@@ -4140,10 +4140,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>70.20043732461093</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -4191,7 +4191,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>61.38835405840673</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>159.5099885583422</v>
+        <v>777.3160057778002</v>
       </c>
       <c r="C2" t="n">
-        <v>53.94298182036445</v>
+        <v>777.3160057778002</v>
       </c>
       <c r="D2" t="n">
-        <v>53.94298182036445</v>
+        <v>777.3160057778002</v>
       </c>
       <c r="E2" t="n">
-        <v>53.94298182036445</v>
+        <v>391.527753179556</v>
       </c>
       <c r="F2" t="n">
         <v>53.94298182036445</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982757</v>
+        <v>1167.455337753612</v>
       </c>
       <c r="Y2" t="n">
-        <v>546.109828622464</v>
+        <v>777.3160057778002</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4412,40 +4412,40 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>55.42359072596872</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610024</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V4" t="n">
-        <v>343.360151857325</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>224.4233909876363</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>224.4233909876363</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1610.120910258947</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="C5" t="n">
-        <v>1241.158393318536</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>850.7171392082162</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>464.928886609972</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V5" t="n">
-        <v>2336.355323790141</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W5" t="n">
-        <v>1983.586668520027</v>
+        <v>1540.921096014692</v>
       </c>
       <c r="X5" t="n">
-        <v>1610.120910258947</v>
+        <v>1208.982837814967</v>
       </c>
       <c r="Y5" t="n">
-        <v>1610.120910258947</v>
+        <v>1208.982837814967</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4667,22 +4667,22 @@
         <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>538.7689125078493</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4749,28 +4749,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>720.4173773380891</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>720.4173773380891</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="T7" t="n">
-        <v>720.4173773380891</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U7" t="n">
-        <v>720.4173773380891</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V7" t="n">
-        <v>720.4173773380891</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>720.4173773380891</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>720.4173773380891</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>720.4173773380891</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1184.889762484419</v>
+        <v>1507.144219645282</v>
       </c>
       <c r="C8" t="n">
-        <v>1184.889762484419</v>
+        <v>1138.18170270487</v>
       </c>
       <c r="D8" t="n">
-        <v>1184.889762484419</v>
+        <v>1138.18170270487</v>
       </c>
       <c r="E8" t="n">
-        <v>799.1015098861748</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4816,7 +4816,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="V8" t="n">
-        <v>1948.494852721311</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="W8" t="n">
-        <v>1948.494852721311</v>
+        <v>2267.209817970484</v>
       </c>
       <c r="X8" t="n">
-        <v>1575.029094460231</v>
+        <v>1893.744059709404</v>
       </c>
       <c r="Y8" t="n">
-        <v>1184.889762484419</v>
+        <v>1893.744059709404</v>
       </c>
     </row>
     <row r="9">
@@ -4859,34 +4859,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
         <v>713.8062203571349</v>
@@ -4904,22 +4904,22 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4992,22 +4992,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>500.820796875036</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>500.820796875036</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W10" t="n">
-        <v>211.4036268380754</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X10" t="n">
-        <v>211.4036268380754</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1783.661558493311</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C11" t="n">
-        <v>1414.699041552899</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D11" t="n">
-        <v>1056.433342946149</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E11" t="n">
-        <v>670.6450903479042</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F11" t="n">
-        <v>670.6450903479042</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G11" t="n">
-        <v>253.5573085843317</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H11" t="n">
-        <v>73.9917951266205</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I11" t="n">
-        <v>73.9917951266205</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J11" t="n">
-        <v>262.6316941403563</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>666.098807160401</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L11" t="n">
-        <v>1218.912065406599</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M11" t="n">
-        <v>1850.62987638991</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>2477.937544449755</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
-        <v>3025.098749216831</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P11" t="n">
-        <v>3454.413795556125</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q11" t="n">
-        <v>3699.589756331025</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R11" t="n">
-        <v>3699.589756331025</v>
+        <v>2668.144421652283</v>
       </c>
       <c r="S11" t="n">
-        <v>3699.589756331025</v>
+        <v>2668.144421652283</v>
       </c>
       <c r="T11" t="n">
-        <v>3484.789894598736</v>
+        <v>2668.144421652283</v>
       </c>
       <c r="U11" t="n">
-        <v>3231.098191343887</v>
+        <v>2414.382636290375</v>
       </c>
       <c r="V11" t="n">
-        <v>2900.035304000317</v>
+        <v>2414.382636290375</v>
       </c>
       <c r="W11" t="n">
-        <v>2547.266648730202</v>
+        <v>2414.382636290375</v>
       </c>
       <c r="X11" t="n">
-        <v>2173.800890469122</v>
+        <v>2414.382636290375</v>
       </c>
       <c r="Y11" t="n">
-        <v>1783.661558493311</v>
+        <v>2024.243304314563</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4134795532265</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9604502720995</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0260406108482</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E12" t="n">
-        <v>504.7885856053927</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2540276322776</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8126299914996</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H12" t="n">
-        <v>119.8966521363041</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I12" t="n">
-        <v>73.9917951266205</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J12" t="n">
-        <v>192.6510469835158</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>260.2588666468723</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L12" t="n">
-        <v>397.4884646625655</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M12" t="n">
-        <v>1038.033814129669</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1711.239506382451</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O12" t="n">
-        <v>2001.655628026347</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2425.623396507183</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
-        <v>2656.336852567651</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R12" t="n">
-        <v>2635.224952969837</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S12" t="n">
-        <v>2485.758163832472</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T12" t="n">
-        <v>2288.76886799256</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U12" t="n">
-        <v>2060.630080503725</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.477972271983</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W12" t="n">
-        <v>1571.240615543781</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>1363.389115338248</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
-        <v>1155.628816573294</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>240.672641920795</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C13" t="n">
-        <v>73.9917951266205</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D13" t="n">
-        <v>73.9917951266205</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E13" t="n">
-        <v>73.9917951266205</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F13" t="n">
-        <v>73.9917951266205</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G13" t="n">
-        <v>73.9917951266205</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H13" t="n">
-        <v>73.9917951266205</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I13" t="n">
-        <v>73.9917951266205</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J13" t="n">
-        <v>73.9917951266205</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K13" t="n">
-        <v>175.03972472223</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>359.8727196230479</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>565.1423203422854</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N13" t="n">
-        <v>770.9656851783893</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O13" t="n">
-        <v>945.0605805669878</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P13" t="n">
-        <v>1070.508157165603</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q13" t="n">
-        <v>1073.926476585963</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R13" t="n">
-        <v>1073.926476585963</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S13" t="n">
-        <v>1073.926476585963</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T13" t="n">
-        <v>1073.926476585963</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="U13" t="n">
-        <v>784.7743001636425</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V13" t="n">
-        <v>530.0898119577556</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W13" t="n">
-        <v>240.672641920795</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X13" t="n">
-        <v>240.672641920795</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y13" t="n">
-        <v>240.672641920795</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2134.774920425097</v>
+        <v>840.8693068625894</v>
       </c>
       <c r="C14" t="n">
-        <v>1765.812403484685</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="D14" t="n">
-        <v>1407.546704877934</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="E14" t="n">
-        <v>1021.75845227969</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F14" t="n">
-        <v>610.7725474900825</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G14" t="n">
-        <v>193.6847657265099</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H14" t="n">
-        <v>193.6847657265099</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I14" t="n">
-        <v>73.99179512662049</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J14" t="n">
-        <v>262.6316941403563</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>666.098807160401</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L14" t="n">
-        <v>1218.912065406599</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M14" t="n">
-        <v>1850.62987638991</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>2477.937544449755</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
-        <v>3025.098749216832</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P14" t="n">
-        <v>3454.413795556125</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q14" t="n">
-        <v>3699.589756331025</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R14" t="n">
-        <v>3699.589756331025</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S14" t="n">
-        <v>3699.589756331025</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T14" t="n">
-        <v>3699.589756331025</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U14" t="n">
-        <v>3699.589756331025</v>
+        <v>2267.209817970485</v>
       </c>
       <c r="V14" t="n">
-        <v>3368.526868987454</v>
+        <v>1936.146930626914</v>
       </c>
       <c r="W14" t="n">
-        <v>3284.97985072611</v>
+        <v>1583.3782753568</v>
       </c>
       <c r="X14" t="n">
-        <v>2911.51409246503</v>
+        <v>1583.3782753568</v>
       </c>
       <c r="Y14" t="n">
-        <v>2521.374760489219</v>
+        <v>1193.238943380988</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4134795532265</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9604502720995</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0260406108482</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>504.7885856053927</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2540276322776</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8126299914995</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H15" t="n">
-        <v>119.8966521363041</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
-        <v>73.99179512662049</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J15" t="n">
-        <v>192.6510469835158</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K15" t="n">
-        <v>522.0794512893251</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L15" t="n">
-        <v>1026.440991155443</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M15" t="n">
-        <v>1253.562877620961</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N15" t="n">
-        <v>1452.219619273625</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O15" t="n">
-        <v>2001.655628026347</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P15" t="n">
-        <v>2425.623396507183</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q15" t="n">
-        <v>2656.336852567651</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R15" t="n">
-        <v>2635.224952969837</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S15" t="n">
-        <v>2485.758163832472</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T15" t="n">
-        <v>2288.76886799256</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U15" t="n">
-        <v>2060.630080503725</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.477972271983</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W15" t="n">
-        <v>1571.240615543781</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X15" t="n">
-        <v>1363.389115338248</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y15" t="n">
-        <v>1155.628816573294</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>242.5986401312371</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C16" t="n">
-        <v>242.5986401312371</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D16" t="n">
-        <v>242.5986401312371</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E16" t="n">
-        <v>242.5986401312371</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F16" t="n">
-        <v>242.5986401312371</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G16" t="n">
-        <v>73.99179512662049</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H16" t="n">
-        <v>73.99179512662049</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I16" t="n">
-        <v>73.99179512662049</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J16" t="n">
-        <v>73.99179512662049</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K16" t="n">
-        <v>175.03972472223</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L16" t="n">
-        <v>359.8727196230479</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>565.1423203422854</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N16" t="n">
-        <v>770.9656851783893</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O16" t="n">
-        <v>945.0605805669878</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P16" t="n">
-        <v>1070.508157165603</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q16" t="n">
-        <v>1073.926476585963</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R16" t="n">
-        <v>1073.926476585963</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S16" t="n">
-        <v>873.0292350030243</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="T16" t="n">
-        <v>873.0292350030243</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U16" t="n">
-        <v>873.0292350030243</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="V16" t="n">
-        <v>873.0292350030243</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W16" t="n">
-        <v>873.0292350030243</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="X16" t="n">
-        <v>645.0396841050069</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="Y16" t="n">
-        <v>424.2471049614768</v>
+        <v>53.94298182036447</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2094.732337045837</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>1725.769820105425</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1725.769820105425</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1339.981567507181</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>928.9956627175731</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>511.9078809540005</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>193.68476572651</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514081</v>
+        <v>666.098807160401</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>3637.194776622471</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>3422.394914890182</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>3168.703211635333</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>2837.640324291763</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>2484.871669021648</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>2484.871669021648</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2094.732337045837</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E18" t="n">
-        <v>504.8063651047445</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2540276322776</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>403.4201994324298</v>
       </c>
       <c r="L18" t="n">
-        <v>901.674922584592</v>
+        <v>907.7817392985476</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>1548.327088765651</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>2221.532781018433</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2381.045093687193</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2489.734721214491</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R18" t="n">
-        <v>2623.573505376138</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S18" t="n">
-        <v>2483.667400459913</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.75278438369</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.647860003077</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.258395043133</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.4068948376</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.646596072646</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>711.072954880832</v>
+        <v>192.0748651091856</v>
       </c>
       <c r="C19" t="n">
-        <v>542.1367719529251</v>
+        <v>192.0748651091856</v>
       </c>
       <c r="D19" t="n">
-        <v>392.0201325405893</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028583</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028583</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>175.03972472223</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>359.8727196230479</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>565.1423203422854</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>770.9656851783893</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>945.0605805669878</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S19" t="n">
-        <v>1337.299414065096</v>
+        <v>866.4861918383681</v>
       </c>
       <c r="T19" t="n">
-        <v>1113.513998854602</v>
+        <v>640.856995150733</v>
       </c>
       <c r="U19" t="n">
-        <v>1113.513998854602</v>
+        <v>640.856995150733</v>
       </c>
       <c r="V19" t="n">
-        <v>1113.513998854602</v>
+        <v>640.856995150733</v>
       </c>
       <c r="W19" t="n">
-        <v>1113.513998854602</v>
+        <v>640.856995150733</v>
       </c>
       <c r="X19" t="n">
-        <v>1113.513998854602</v>
+        <v>412.8674442527157</v>
       </c>
       <c r="Y19" t="n">
-        <v>892.7214197110717</v>
+        <v>192.0748651091856</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2040.401133256725</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>1671.438616316314</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1313.172917709563</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>927.384665111319</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>516.3987603217115</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>99.31097855813897</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>99.31097855813897</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>666.0988071604011</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3543.374718827853</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3190.606063557739</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>2817.140305296659</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2427.000973320847</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047445</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>119.8966521363041</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>192.6510469835158</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>522.0794512893251</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>1026.440991155443</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1205.938327510047</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1452.219619273625</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2001.655628026347</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R21" t="n">
-        <v>2623.573505376138</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S21" t="n">
-        <v>2483.667400459913</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.75278438369</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.647860003077</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.258395043133</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.4068948376</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.646596072646</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>392.0201325405893</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="C22" t="n">
-        <v>392.0201325405893</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="D22" t="n">
-        <v>392.0201325405893</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="E22" t="n">
-        <v>244.1070389581962</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028583</v>
+        <v>242.5986401312371</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028583</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028583</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>175.0397247222299</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>359.8727196230478</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>565.1423203422853</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>770.9656851783891</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>945.0605805669875</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>873.0292350030243</v>
       </c>
       <c r="T22" t="n">
-        <v>1384.903920824984</v>
+        <v>873.0292350030243</v>
       </c>
       <c r="U22" t="n">
-        <v>1384.903920824984</v>
+        <v>873.0292350030243</v>
       </c>
       <c r="V22" t="n">
-        <v>1130.219432619097</v>
+        <v>873.0292350030243</v>
       </c>
       <c r="W22" t="n">
-        <v>840.8022625821368</v>
+        <v>873.0292350030243</v>
       </c>
       <c r="X22" t="n">
-        <v>612.8127116841194</v>
+        <v>645.0396841050069</v>
       </c>
       <c r="Y22" t="n">
-        <v>392.0201325405893</v>
+        <v>424.2471049614768</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,34 +5974,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643324</v>
@@ -6010,31 +6010,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="24">
@@ -6065,19 +6065,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M24" t="n">
-        <v>1595.645765494011</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N24" t="n">
         <v>2051.878056918008</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>412.2823606383756</v>
+        <v>354.6908600059914</v>
       </c>
       <c r="C25" t="n">
-        <v>412.2823606383756</v>
+        <v>354.6908600059914</v>
       </c>
       <c r="D25" t="n">
-        <v>412.2823606383756</v>
+        <v>354.6908600059914</v>
       </c>
       <c r="E25" t="n">
-        <v>412.2823606383756</v>
+        <v>354.6908600059914</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>207.800912508081</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1469.298072878159</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
-        <v>1245.512657667665</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U25" t="n">
-        <v>956.3840188812231</v>
+        <v>898.7925182488389</v>
       </c>
       <c r="V25" t="n">
-        <v>701.6995306753363</v>
+        <v>644.108030042952</v>
       </c>
       <c r="W25" t="n">
-        <v>412.2823606383756</v>
+        <v>354.6908600059914</v>
       </c>
       <c r="X25" t="n">
-        <v>412.2823606383756</v>
+        <v>354.6908600059914</v>
       </c>
       <c r="Y25" t="n">
-        <v>412.2823606383756</v>
+        <v>354.6908600059914</v>
       </c>
     </row>
     <row r="26">
@@ -6223,13 +6223,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6238,19 +6238,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6302,22 +6302,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277035</v>
       </c>
       <c r="L27" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.043068977054</v>
+        <v>857.5427825698951</v>
       </c>
       <c r="N27" t="n">
-        <v>1999.905696641086</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O27" t="n">
         <v>2331.418122136705</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>403.861478255592</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>585.5099430858318</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>585.5099430858318</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>585.5099430858318</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619856</v>
+        <v>638.3691419079765</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6700,7 +6700,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
         <v>889.2841917514083</v>
@@ -6712,7 +6712,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6736,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6779,22 +6779,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>638.3691419079765</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.043068977054</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N33" t="n">
-        <v>1999.905696641086</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P33" t="n">
         <v>2536.440602918915</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1029.666285013068</v>
+        <v>514.936581693766</v>
       </c>
       <c r="C34" t="n">
-        <v>860.7301020851612</v>
+        <v>346.0003987658591</v>
       </c>
       <c r="D34" t="n">
-        <v>710.6134626728254</v>
+        <v>346.0003987658591</v>
       </c>
       <c r="E34" t="n">
-        <v>562.7003690904323</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F34" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
         <v>97.21709146028584</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>1298.996260473455</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V34" t="n">
-        <v>1044.311772267568</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W34" t="n">
-        <v>1044.311772267568</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X34" t="n">
-        <v>1044.311772267568</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="Y34" t="n">
-        <v>1044.311772267568</v>
+        <v>696.5850465240057</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7016,13 +7016,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>563.7235867775516</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M36" t="n">
         <v>1332.091733170013</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1379.229518531123</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1379.229518531123</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U37" t="n">
-        <v>1090.100879744681</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V37" t="n">
-        <v>835.416391538794</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W37" t="n">
-        <v>545.9992215018333</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038159</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>237.776412546148</v>
       </c>
     </row>
     <row r="38">
@@ -7153,40 +7153,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7201,22 +7201,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7253,19 +7253,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>563.7235867775518</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O39" t="n">
         <v>2331.418122136705</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>434.3285960683721</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C40" t="n">
-        <v>265.3924131404652</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D40" t="n">
-        <v>265.3924131404652</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>936.9883990534095</v>
       </c>
       <c r="V40" t="n">
-        <v>986.0022165609664</v>
+        <v>936.9883990534095</v>
       </c>
       <c r="W40" t="n">
-        <v>986.0022165609664</v>
+        <v>647.5712290164488</v>
       </c>
       <c r="X40" t="n">
-        <v>836.769640042142</v>
+        <v>647.5712290164488</v>
       </c>
       <c r="Y40" t="n">
-        <v>615.9770608986119</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7396,22 +7396,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514081</v>
@@ -7429,16 +7429,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7478,37 +7478,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>303.4575213834697</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>550.2226492899338</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>857.5427825698953</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,25 +7596,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>964.135741824786</v>
+        <v>1254.88608187316</v>
       </c>
       <c r="U43" t="n">
-        <v>964.135741824786</v>
+        <v>965.7574430867188</v>
       </c>
       <c r="V43" t="n">
-        <v>709.4512536188992</v>
+        <v>711.072954880832</v>
       </c>
       <c r="W43" t="n">
-        <v>420.0340835819385</v>
+        <v>711.072954880832</v>
       </c>
       <c r="X43" t="n">
-        <v>192.0445326839212</v>
+        <v>711.072954880832</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>711.072954880832</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7633,40 +7633,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>244.1070389581962</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="C46" t="n">
-        <v>244.1070389581962</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D46" t="n">
-        <v>244.1070389581962</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E46" t="n">
         <v>244.1070389581962</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1428.00673790678</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1228.086727822332</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1004.301312611838</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>715.1726738253965</v>
+        <v>1013.202406820125</v>
       </c>
       <c r="V46" t="n">
-        <v>715.1726738253965</v>
+        <v>1013.202406820125</v>
       </c>
       <c r="W46" t="n">
-        <v>425.7555037884359</v>
+        <v>723.7852367831648</v>
       </c>
       <c r="X46" t="n">
-        <v>425.7555037884359</v>
+        <v>723.7852367831648</v>
       </c>
       <c r="Y46" t="n">
-        <v>425.7555037884359</v>
+        <v>723.7852367831648</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,10 +8771,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8783,7 +8783,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>132.226069671855</v>
+        <v>274.4264991783517</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270189</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9014,10 +9014,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>48.10560617264085</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>6.233205181928696</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>124.3400780863229</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>145.3183738900835</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>48.10560617264125</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,19 +9716,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>127.6461250100648</v>
+        <v>423.337678916511</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9959,16 +9959,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>15.83804904622787</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>52.49733361305249</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10193,13 +10193,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>96.03744927814688</v>
+        <v>104.874910276575</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10433,7 +10433,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>104.874910276575</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,16 +10664,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>369.0893880493733</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10907,16 +10907,16 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>29.47535963978231</v>
       </c>
       <c r="M39" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>15.83804904622875</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11150,19 +11150,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -22546,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>260.7615551004096</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>72.66712209611183</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -22594,10 +22594,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22719,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>154.7050860252469</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,19 +22752,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>157.4983735401874</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22786,19 +22786,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -22831,25 +22831,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>25.04483148914659</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>41.11222506074114</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22941,10 +22941,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -22953,10 +22953,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -22989,22 +22989,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>139.0307011804962</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>117.5062691663786</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>281.1255684039688</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,19 +23068,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>31.92699829763336</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23089,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23232,10 +23232,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23244,10 +23244,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>131.0703856053968</v>
       </c>
       <c r="Y10" t="n">
-        <v>62.69861478456102</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>137.2710257520816</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4960408938906</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,25 +23305,25 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>25.76377990253139</v>
       </c>
       <c r="S11" t="n">
-        <v>154.6528871281403</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>2.232782772395097</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23430,16 +23430,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.9207765545704</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
-        <v>152.7120966692326</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>123.2665578794171</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>17.69584188176918</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,28 +23460,28 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R13" t="n">
-        <v>129.1731816677914</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
-        <v>205.3658819001187</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>223.3729047207587</v>
+        <v>69.58249272688971</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>33.88790151026569</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>315.0408840752156</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281403</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>212.651863114966</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>266.529420638683</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23667,16 +23667,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>152.7120966692326</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>123.2665578794171</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>17.69584188176918</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,31 +23697,31 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R16" t="n">
-        <v>129.1731816677914</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S16" t="n">
-        <v>6.477612733009607</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>223.3729047207587</v>
+        <v>130.3958356744435</v>
       </c>
       <c r="U16" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>92.88185721667205</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,31 +23889,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>31.71323373547293</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>17.69584188176918</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>129.1731816677914</v>
       </c>
       <c r="S19" t="n">
-        <v>37.92012205572493</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23955,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>93.43004929668729</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,22 +24135,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>17.6958418817692</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>129.1731816677915</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>6.477612733009835</v>
       </c>
       <c r="T22" t="n">
-        <v>108.6753348228005</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24378,7 +24378,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.01558562606039</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.5987942806573</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>30.16244663465233</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24852,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>50.96659166315999</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>165.3329477999827</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>45.55953643698287</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25125,19 +25125,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>40.67825230693373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25362,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>79.43092547709136</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25599,22 +25599,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>149.3971306511219</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>77.96940463540096</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
@@ -25836,25 +25836,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>89.92202666428767</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>124.7054865406958</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26028,10 +26028,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>39.76391507918187</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>224.8489983401706</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>734997.6231445116</v>
+        <v>734997.6231445118</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>851553.6159369524</v>
+        <v>734997.6231445117</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>851553.6159369523</v>
+        <v>734997.6231445118</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>979408.0102536819</v>
+        <v>851553.6159369525</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>979408.0102536819</v>
+        <v>851553.6159369523</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>979408.0102536819</v>
+        <v>979408.0102536818</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>979408.010253682</v>
+        <v>979408.0102536819</v>
       </c>
     </row>
     <row r="15">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>303610.2405165454</v>
+      </c>
+      <c r="C2" t="n">
+        <v>303610.2405165454</v>
+      </c>
+      <c r="D2" t="n">
         <v>303610.2405165455</v>
       </c>
-      <c r="C2" t="n">
-        <v>303610.2405165453</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>303610.2405165454</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
+        <v>303610.2405165456</v>
+      </c>
+      <c r="G2" t="n">
+        <v>354622.4384779893</v>
+      </c>
+      <c r="H2" t="n">
         <v>354622.4384779896</v>
-      </c>
-      <c r="F2" t="n">
-        <v>354622.4384779895</v>
-      </c>
-      <c r="G2" t="n">
-        <v>410580.5127245945</v>
-      </c>
-      <c r="H2" t="n">
-        <v>410580.5127245943</v>
       </c>
       <c r="I2" t="n">
         <v>410580.5127245943</v>
       </c>
       <c r="J2" t="n">
-        <v>410580.5127245942</v>
+        <v>410580.5127245943</v>
       </c>
       <c r="K2" t="n">
         <v>410580.5127245942</v>
@@ -26346,16 +26346,16 @@
         <v>410580.5127245943</v>
       </c>
       <c r="M2" t="n">
-        <v>410580.5127245943</v>
+        <v>410580.5127245942</v>
       </c>
       <c r="N2" t="n">
         <v>410580.5127245943</v>
       </c>
       <c r="O2" t="n">
+        <v>410580.5127245942</v>
+      </c>
+      <c r="P2" t="n">
         <v>410580.5127245943</v>
-      </c>
-      <c r="P2" t="n">
-        <v>410580.5127245944</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>248146.7686188427</v>
+        <v>2.283408662151487e-10</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>263762.8892659104</v>
+        <v>236417.6520004546</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>255532.1595990998</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62453.05588965292</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>69864.88484991122</v>
+        <v>60309.58713704771</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26426,16 +26426,16 @@
         <v>27086.83710496504</v>
       </c>
       <c r="E4" t="n">
+        <v>27086.83710496504</v>
+      </c>
+      <c r="F4" t="n">
+        <v>27086.83710496504</v>
+      </c>
+      <c r="G4" t="n">
         <v>24740.78594361633</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>24740.78594361633</v>
-      </c>
-      <c r="G4" t="n">
-        <v>22174.60758687071</v>
-      </c>
-      <c r="H4" t="n">
-        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
@@ -26478,37 +26478,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>49231.47806340948</v>
+      </c>
+      <c r="F5" t="n">
+        <v>49231.47806340949</v>
+      </c>
+      <c r="G5" t="n">
         <v>69171.54328360136</v>
       </c>
-      <c r="F5" t="n">
-        <v>69171.54328360135</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
+        <v>69171.54328360136</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871665</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="L5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="N5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="O5" t="n">
         <v>91987.32594871661</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-402371.9676121927</v>
+        <v>-396910.3952409555</v>
       </c>
       <c r="C6" t="n">
-        <v>187595.9116023516</v>
+        <v>193057.4839735889</v>
       </c>
       <c r="D6" t="n">
-        <v>187595.9116023517</v>
+        <v>193057.4839735891</v>
       </c>
       <c r="E6" t="n">
-        <v>8924.079169988265</v>
+        <v>226685.0839735887</v>
       </c>
       <c r="F6" t="n">
-        <v>257070.8477888308</v>
+        <v>226685.0839735891</v>
       </c>
       <c r="G6" t="n">
-        <v>31681.09866337517</v>
+        <v>23928.53110412293</v>
       </c>
       <c r="H6" t="n">
-        <v>295443.9879292853</v>
+        <v>260346.1831045778</v>
       </c>
       <c r="I6" t="n">
-        <v>295443.9879292853</v>
+        <v>40788.96046393497</v>
       </c>
       <c r="J6" t="n">
-        <v>119020.7687366922</v>
+        <v>119897.9008704419</v>
       </c>
       <c r="K6" t="n">
-        <v>295443.9879292852</v>
+        <v>296321.1200630349</v>
       </c>
       <c r="L6" t="n">
-        <v>295443.9879292853</v>
+        <v>296321.1200630348</v>
       </c>
       <c r="M6" t="n">
-        <v>232990.9320396323</v>
+        <v>296321.1200630347</v>
       </c>
       <c r="N6" t="n">
-        <v>295443.9879292853</v>
+        <v>296321.1200630348</v>
       </c>
       <c r="O6" t="n">
-        <v>225579.1030793741</v>
+        <v>236011.532925987</v>
       </c>
       <c r="P6" t="n">
-        <v>295443.9879292854</v>
+        <v>296321.1200630348</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26746,37 +26746,37 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>377.7436642170869</v>
+      </c>
+      <c r="F3" t="n">
+        <v>377.7436642170869</v>
+      </c>
+      <c r="G3" t="n">
         <v>593.4761003380635</v>
       </c>
-      <c r="F3" t="n">
-        <v>593.4761003380635</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
+        <v>593.4761003380634</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="H3" t="n">
+      <c r="L3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="I3" t="n">
+      <c r="M3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26795,22 +26795,22 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="F4" t="n">
+        <v>674.2872727545558</v>
+      </c>
+      <c r="G4" t="n">
         <v>924.8974390827563</v>
       </c>
-      <c r="F4" t="n">
-        <v>924.8974390827561</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1215.213643253573</v>
-      </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>924.8974390827563</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>215.7324361209769</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>236.9063051160367</v>
+        <v>215.7324361209766</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>236.9063051160372</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>250.6101663282006</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>290.3162041708167</v>
+        <v>250.6101663282004</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>290.3162041708173</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>250.6101663282006</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>290.3162041708167</v>
+        <v>250.6101663282002</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>250.6101663282006</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>290.3162041708167</v>
+        <v>250.6101663282004</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.385833569198244</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>24.43391804055151</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I11" t="n">
-        <v>91.97984867651536</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J11" t="n">
-        <v>202.4946418937396</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>303.4869768779013</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>376.5024309712521</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M11" t="n">
-        <v>418.9314987074814</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N11" t="n">
-        <v>425.7102483359659</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O11" t="n">
-        <v>401.9861157822508</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P11" t="n">
-        <v>343.0858495426692</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q11" t="n">
-        <v>257.643184845757</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411493</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S11" t="n">
-        <v>54.36718245810503</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T11" t="n">
-        <v>10.44398644916532</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1908666855358594</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.276533498840363</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H12" t="n">
-        <v>12.32862615985298</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I12" t="n">
-        <v>43.95082441182829</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J12" t="n">
-        <v>120.604421484738</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K12" t="n">
-        <v>206.1321659070423</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L12" t="n">
-        <v>277.1701353512815</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M12" t="n">
-        <v>323.4444746842445</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N12" t="n">
-        <v>332.0050874900644</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O12" t="n">
-        <v>303.7197925947069</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P12" t="n">
-        <v>243.7619099671567</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
-        <v>162.9483813607453</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R12" t="n">
-        <v>79.25705355080783</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S12" t="n">
-        <v>23.7110498578462</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>5.145325813308303</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08398246702897129</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.070202803888311</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H13" t="n">
-        <v>9.515075838206991</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I13" t="n">
-        <v>32.18391704784122</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J13" t="n">
-        <v>75.66333823490359</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K13" t="n">
-        <v>124.3381075790238</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L13" t="n">
-        <v>159.1099695889949</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M13" t="n">
-        <v>167.7591540676922</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N13" t="n">
-        <v>163.7702163441087</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O13" t="n">
-        <v>151.2683017714133</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P13" t="n">
-        <v>129.4361645720917</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q13" t="n">
-        <v>89.61489115104759</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R13" t="n">
-        <v>48.12020970937805</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S13" t="n">
-        <v>18.65071613685356</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>4.572684707522782</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05837469839390794</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.385833569198244</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>24.43391804055151</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I14" t="n">
-        <v>91.97984867651536</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J14" t="n">
-        <v>202.4946418937396</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>303.4869768779013</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>376.5024309712521</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M14" t="n">
-        <v>418.9314987074814</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N14" t="n">
-        <v>425.7102483359659</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O14" t="n">
-        <v>401.9861157822508</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P14" t="n">
-        <v>343.0858495426692</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q14" t="n">
-        <v>257.643184845757</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411493</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S14" t="n">
-        <v>54.36718245810503</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T14" t="n">
-        <v>10.44398644916532</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1908666855358594</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.276533498840363</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H15" t="n">
-        <v>12.32862615985298</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I15" t="n">
-        <v>43.95082441182829</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J15" t="n">
-        <v>120.604421484738</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K15" t="n">
-        <v>206.1321659070423</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L15" t="n">
-        <v>277.1701353512815</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M15" t="n">
-        <v>323.4444746842445</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N15" t="n">
-        <v>332.0050874900644</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O15" t="n">
-        <v>303.7197925947069</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P15" t="n">
-        <v>243.7619099671567</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
-        <v>162.9483813607453</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R15" t="n">
-        <v>79.25705355080783</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S15" t="n">
-        <v>23.7110498578462</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>5.145325813308303</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08398246702897129</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.070202803888311</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H16" t="n">
-        <v>9.515075838206991</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I16" t="n">
-        <v>32.18391704784122</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J16" t="n">
-        <v>75.66333823490359</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K16" t="n">
-        <v>124.3381075790238</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L16" t="n">
-        <v>159.1099695889949</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M16" t="n">
-        <v>167.7591540676922</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N16" t="n">
-        <v>163.7702163441087</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O16" t="n">
-        <v>151.2683017714133</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P16" t="n">
-        <v>129.4361645720917</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.61489115104759</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R16" t="n">
-        <v>48.12020970937805</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S16" t="n">
-        <v>18.65071613685356</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>4.572684707522782</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05837469839390794</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>2.385833569198244</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>91.97984867651536</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>303.4869768779013</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>376.5024309712521</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>418.9314987074814</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>425.7102483359659</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>401.9861157822508</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>343.0858495426692</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>257.643184845757</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>54.36718245810503</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>10.44398644916532</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>277.1701353512815</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>332.0050874900644</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>303.7197925947069</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>79.25705355080783</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>5.145325813308303</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.08398246702897129</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>9.515075838206991</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>32.18391704784122</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822383</v>
+        <v>75.66333823490359</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>124.3381075790238</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>163.7702163441087</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>89.61489115104759</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>48.12020970937805</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>4.572684707522782</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.05837469839390794</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>2.385833569198243</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>91.97984867651535</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>303.4869768779012</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>376.502430971252</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>418.9314987074812</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>425.7102483359658</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>401.9861157822507</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>343.0858495426691</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>257.6431848457569</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>54.36718245810501</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>10.44398644916531</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>277.1701353512814</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>332.0050874900643</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>303.7197925947068</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>79.25705355080781</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>5.145325813308302</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.08398246702897126</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>9.51507583820699</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>32.18391704784121</v>
       </c>
       <c r="J22" t="n">
-        <v>105.8669502822383</v>
+        <v>75.66333823490358</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>124.3381075790237</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>163.7702163441086</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>89.61489115104756</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>48.12020970937804</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>4.572684707522781</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.05837469839390793</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,10 +32937,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,37 +32949,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33055,7 +33055,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.5453525391271</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>407.5425384040855</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>558.3972305517153</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M11" t="n">
-        <v>638.0987989730411</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N11" t="n">
-        <v>633.6441091513591</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O11" t="n">
-        <v>552.6880856233095</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P11" t="n">
-        <v>433.6515619588823</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q11" t="n">
-        <v>247.6524856312122</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.8578301584801</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K12" t="n">
-        <v>68.29072693268333</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L12" t="n">
-        <v>138.6157555714073</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M12" t="n">
-        <v>647.0155045122261</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N12" t="n">
-        <v>680.0057497502846</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O12" t="n">
-        <v>293.3496178221175</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P12" t="n">
-        <v>428.2502711927636</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>233.0438950105729</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,25 +35570,25 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>102.0686157531409</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L13" t="n">
-        <v>186.6999948493111</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M13" t="n">
-        <v>207.3430310295328</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N13" t="n">
-        <v>207.9023887233373</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O13" t="n">
-        <v>175.853429685453</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P13" t="n">
-        <v>126.7147238369852</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.452847899353202</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.5453525391271</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>407.5425384040855</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>558.3972305517153</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M14" t="n">
-        <v>638.0987989730411</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N14" t="n">
-        <v>633.6441091513591</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O14" t="n">
-        <v>552.6880856233095</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P14" t="n">
-        <v>433.6515619588823</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q14" t="n">
-        <v>247.6524856312122</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>119.8578301584801</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>332.7559639452619</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L15" t="n">
-        <v>509.4561008748665</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M15" t="n">
-        <v>229.4160469348671</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N15" t="n">
-        <v>200.6633754067311</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O15" t="n">
-        <v>554.9858674269919</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P15" t="n">
-        <v>428.2502711927636</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>233.0438950105729</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>102.0686157531409</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L16" t="n">
-        <v>186.6999948493111</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M16" t="n">
-        <v>207.3430310295328</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N16" t="n">
-        <v>207.9023887233373</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O16" t="n">
-        <v>175.853429685453</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P16" t="n">
-        <v>126.7147238369852</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.452847899353202</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>190.5453525391271</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>407.5425384040855</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>558.3972305517153</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>638.0987989730411</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>552.6880856233095</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>433.6515619588823</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>247.6524856312122</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>509.4561008748665</v>
       </c>
       <c r="M18" t="n">
-        <v>434.7644551367891</v>
+        <v>647.0155045122261</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>680.0057497502846</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>161.1235481502624</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>109.7875025528265</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>168.2849811648072</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>186.6999948493111</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>207.9023887233373</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>126.7147238369852</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>3.452847899353202</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>190.545352539127</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>407.5425384040854</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>558.3972305517152</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>638.098798973041</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>552.6880856233093</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>433.6515619588822</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>247.6524856312121</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>119.8578301584801</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>509.4561008748664</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734244</v>
+        <v>181.3104407622262</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>248.7689815793723</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>554.9858674269919</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>233.0438950105728</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>186.699994849311</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>207.9023887233372</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>126.7147238369851</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>3.452847899353173</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N24" t="n">
-        <v>460.8406984080777</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>326.2624260966943</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O27" t="n">
-        <v>334.8610358541607</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>345.2951542341712</v>
+        <v>354.1326152325993</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>354.1326152325993</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>679.5137650998395</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958066</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>166.413487634168</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382561</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38113,7 +38113,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
